--- a/outputs/ML_Results/dist_commute/All_model_short_table.xlsx
+++ b/outputs/ML_Results/dist_commute/All_model_short_table.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\dist_commute\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD0C515-7751-4B40-9316-08A556ACAB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1D4F0C04-E47E-48EC-A4A8-34963E6F655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All_model_short" sheetId="1" r:id="rId1"/>
-    <sheet name="table" sheetId="2" r:id="rId2"/>
+    <sheet name="All_model_short_table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>param</t>
   </si>
@@ -72,48 +72,6 @@
   </si>
   <si>
     <t>LU_Comm_res</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Coefficient</t>
-  </si>
-  <si>
-    <t>Household Size</t>
-  </si>
-  <si>
-    <t>Dist. to center</t>
-  </si>
-  <si>
-    <t>Dist. to subcenter</t>
-  </si>
-  <si>
-    <t>Built-up density</t>
-  </si>
-  <si>
-    <t>Intersection density</t>
-  </si>
-  <si>
-    <t>Urban fabric area (%)</t>
-  </si>
-  <si>
-    <t>Commercial area (%)</t>
-  </si>
-  <si>
-    <t>Country France</t>
-  </si>
-  <si>
-    <t>Country Germany</t>
-  </si>
-  <si>
-    <t>Country Spain</t>
-  </si>
-  <si>
-    <t>Avg. street length</t>
-  </si>
-  <si>
-    <t>Popluation density</t>
   </si>
 </sst>
 </file>
@@ -124,7 +82,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,14 +213,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -609,14 +559,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -975,7 +923,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-1833.85263666791</v>
-      </c>
-      <c r="C2" s="6">
-        <v>3.47765134606931E-38</v>
+        <v>-2095.3273390315999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.72031242907365E-46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1007,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-1093.4018316862901</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5.8208596377986203E-15</v>
+        <v>-364.94962615501601</v>
+      </c>
+      <c r="C3">
+        <v>2.1606833652216498E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1018,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-1689.76717993594</v>
-      </c>
-      <c r="C4" s="6">
-        <v>7.7110216082756899E-29</v>
+        <v>-2164.52458514721</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.05799043916769E-45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1029,10 +977,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-1186.1302787068701</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2.2054592649056301E-167</v>
+        <v>-1381.3641392576801</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.5354373894799605E-203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1040,18 +988,21 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-19.1992012687308</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.03097873597126E-22</v>
+        <v>-21.381118936939899</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.3776388916876397E-27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.36535177545389802</v>
+      <c r="B7">
+        <v>33.696997383230602</v>
+      </c>
+      <c r="C7">
+        <v>8.5653098165893699E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1059,9 +1010,9 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>370.00357131803798</v>
-      </c>
-      <c r="C8" s="6">
+        <v>357.67268375122597</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
@@ -1070,10 +1021,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>149.27518451531699</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8.6409955124025399E-42</v>
+        <v>162.65168772400199</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.7822079603849802E-41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,10 +1032,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-1.94946985843194E-2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.1952474753777401E-7</v>
+        <v>-1.2844172182848601</v>
+      </c>
+      <c r="C10">
+        <v>2.1130176818260002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1092,10 +1043,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-4.97740482173361</v>
-      </c>
-      <c r="C11" s="6">
-        <v>7.6031937488522106E-2</v>
+        <v>-4.3220420901292398</v>
+      </c>
+      <c r="C11">
+        <v>0.13387239750475899</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1103,10 +1054,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-13.087134382211699</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.60801149410264E-23</v>
+        <v>-13.784187895442001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.765296718232E-23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1114,10 +1065,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>8.9595365119419696</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3.7946528276087601E-8</v>
+        <v>2.35426928259607</v>
+      </c>
+      <c r="C13">
+        <v>0.19535770289878299</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1125,10 +1076,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-15.3228550814261</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3.72979073024557E-22</v>
+        <v>-20.365725868112602</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.6124188602997802E-33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1136,10 +1087,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-32.811303229154198</v>
-      </c>
-      <c r="C15" s="6">
-        <v>4.7628102227114603E-49</v>
+        <v>-33.514203801719503</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.8210087203429497E-44</v>
       </c>
     </row>
   </sheetData>
@@ -1149,134 +1100,177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-1833.85263666791</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-1093.4018316862901</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-1689.76717993594</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-2095.3273390315999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.72031242907365E-46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-364.94962615501601</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.1606833652216498E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-2164.52458514721</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.05799043916769E-45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>-1186.1302787068701</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B5" s="3">
+        <v>-1381.3641392576801</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.5354373894799605E-203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
-        <v>-19.1992012687308</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3">
-        <v>370.00357131803798</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3">
-        <v>149.27518451531699</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>30</v>
+      <c r="B6" s="2">
+        <v>-21.381118936939899</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.3776388916876397E-27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>33.696997383230602</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.5653098165893699E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>357.67268375122597</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>162.65168772400199</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.7822079603849802E-41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-1.2844172182848601</v>
       </c>
       <c r="C10" s="4">
-        <v>-1.94946985843194E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5">
-        <v>-4.97740482173361</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-13.087134382211699</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3">
-        <v>8.9595365119419696</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-15.3228550814261</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-32.811303229154198</v>
+        <v>2.1130176818260002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-4.3220420901292398</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.13387239750475899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-13.784187895442001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.765296718232E-23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.35426928259607</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.19535770289878299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-20.365725868112602</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.6124188602997802E-33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-33.514203801719503</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5.8210087203429497E-44</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/All_model_short_table.xlsx
+++ b/outputs/ML_Results/dist_commute/All_model_short_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\dist_commute\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1D4F0C04-E47E-48EC-A4A8-34963E6F655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B55AA-3CF8-4AF2-886E-051189217805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_model_short" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>param</t>
   </si>
@@ -72,12 +72,15 @@
   </si>
   <si>
     <t>LU_Comm_res</t>
+  </si>
+  <si>
+    <t>DistCenter_res_pc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -624,9 +627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -664,7 +667,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -770,7 +773,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -912,18 +915,201 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C15" sqref="B2:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-1821.75531624262</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.2410752481191398E-35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>28.572453130759701</v>
+      </c>
+      <c r="C3">
+        <v>0.79527458053366096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-675.28973609493403</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.1811110251013006E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>-1383.3392578114001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.26697583715043E-201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-24.461075810368001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.9714880893186205E-35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>23.017167020506001</v>
+      </c>
+      <c r="C7">
+        <v>0.24382513982502399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>30.224143606874399</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>169.840533176907</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.6481713026002206E-45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>-0.55817050387310896</v>
+      </c>
+      <c r="C10">
+        <v>0.179594587589192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>-5.64847186186309</v>
+      </c>
+      <c r="C11">
+        <v>5.1194398308366702E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>-12.8989464806358</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.4112699916433395E-20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>6.5581225668652703</v>
+      </c>
+      <c r="C13">
+        <v>1.6218917760510001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>-6.7466329219525001</v>
+      </c>
+      <c r="C14">
+        <v>1.349100514568E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>-14.517823929416</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.60351867798695E-9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,76 +1129,76 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>-2095.3273390315999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.72031242907365E-46</v>
+      <c r="B2" s="3">
+        <v>-1821.75531624262</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.2410752481191398E-35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>-364.94962615501601</v>
-      </c>
-      <c r="C3">
-        <v>2.1606833652216498E-2</v>
+      <c r="B3" s="3">
+        <v>28.572453130759701</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.79527458053366096</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>-2164.52458514721</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.05799043916769E-45</v>
+      <c r="B4" s="3">
+        <v>-675.28973609493403</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.1811110251013006E-6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>-1381.3641392576801</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8.5354373894799605E-203</v>
+      <c r="B5" s="3">
+        <v>-1383.3392578114001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.26697583715043E-201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>-21.381118936939899</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.3776388916876397E-27</v>
+      <c r="B6" s="2">
+        <v>-24.461075810368001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.9714880893186205E-35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>33.696997383230602</v>
-      </c>
-      <c r="C7">
-        <v>8.5653098165893699E-2</v>
+      <c r="B7" s="2">
+        <v>23.017167020506001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.24382513982502399</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>357.67268375122597</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2">
+        <v>30.224143606874399</v>
+      </c>
+      <c r="C8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1020,257 +1206,77 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>162.65168772400199</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.7822079603849802E-41</v>
+      <c r="B9" s="2">
+        <v>169.840533176907</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.6481713026002206E-45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>-1.2844172182848601</v>
-      </c>
-      <c r="C10">
-        <v>2.1130176818260002E-3</v>
+      <c r="B10" s="2">
+        <v>-0.55817050387310896</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.179594587589192</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>-4.3220420901292398</v>
-      </c>
-      <c r="C11">
-        <v>0.13387239750475899</v>
+      <c r="B11" s="2">
+        <v>-5.64847186186309</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.1194398308366702E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>-13.784187895442001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.765296718232E-23</v>
+      <c r="B12" s="2">
+        <v>-12.8989464806358</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7.4112699916433395E-20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>2.35426928259607</v>
-      </c>
-      <c r="C13">
-        <v>0.19535770289878299</v>
+      <c r="B13" s="2">
+        <v>6.5581225668652703</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.6218917760510001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>-20.365725868112602</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.6124188602997802E-33</v>
+      <c r="B14" s="2">
+        <v>-6.7466329219525001</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.349100514568E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>-33.514203801719503</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5.8210087203429497E-44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-2095.3273390315999</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.72031242907365E-46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-364.94962615501601</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2.1606833652216498E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-2164.52458514721</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.05799043916769E-45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-1381.3641392576801</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8.5354373894799605E-203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-21.381118936939899</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6.3776388916876397E-27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>33.696997383230602</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8.5653098165893699E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>357.67268375122597</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>162.65168772400199</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2.7822079603849802E-41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-1.2844172182848601</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2.1130176818260002E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-4.3220420901292398</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.13387239750475899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-13.784187895442001</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2.765296718232E-23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2.35426928259607</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.19535770289878299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>-20.365725868112602</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4.6124188602997802E-33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
       <c r="B15" s="2">
-        <v>-33.514203801719503</v>
+        <v>-14.517823929416</v>
       </c>
       <c r="C15" s="4">
-        <v>5.8210087203429497E-44</v>
+        <v>6.60351867798695E-9</v>
       </c>
     </row>
   </sheetData>
